--- a/Excel_HowtoDropBoxWithoutBlanks.xlsx
+++ b/Excel_HowtoDropBoxWithoutBlanks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\DEV\Learning-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DFEB27-6C26-45BC-AA0C-ACED92A051C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D7BA5-DDBA-4BD8-81B3-D43DEB4FF0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,9 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="LIST">OFFSET(Tabelle1!$D$2,,,COUNTIF(Tabelle1!$D$2:$D$100,"&gt; "),1)</definedName>
+    <definedName name="LIST">OFFSET(Tabelle1!$C$2,,,COUNTIF(Tabelle1!$C$2:$C$100,"&gt; "),1)</definedName>
+    <definedName name="LIST2">OFFSET(Tabelle1!$H$2,,,COUNTIF(Tabelle1!$H$2:$H$100,"&gt; "),1)</definedName>
+    <definedName name="LISTROH">OFFSET(Tabelle1!$M$2,,,COUNTIF(Tabelle1!$M$2:$M$100,"&gt; "),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>a</t>
   </si>
@@ -101,6 +103,24 @@
   </si>
   <si>
     <t>safadsf</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>LISTROH</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>LIST2</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>100.200.000</t>
   </si>
 </sst>
 </file>
@@ -466,276 +486,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="str" cm="1">
-        <f t="array" ref="D2">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D1, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C2" s="1" t="str" cm="1">
+        <f t="array" ref="C2">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C1, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>a</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="str" cm="1">
-        <f t="array" ref="D3">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D2, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str" cm="1">
+        <f t="array" ref="H2">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H1, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v>a</v>
+      </c>
+      <c r="K2">
+        <v>32424</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M1, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v>100.200.000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str" cm="1">
+        <f t="array" ref="C3">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C2, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>b</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3" t="str" cm="1">
+        <f t="array" ref="H3">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H2, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v>b</v>
+      </c>
+      <c r="K3">
+        <v>2342</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M2, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v>32424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="str" cm="1">
-        <f t="array" ref="D4">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D3, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C4" s="1" t="str" cm="1">
+        <f t="array" ref="C4">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C3, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>d</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="str" cm="1">
-        <f t="array" ref="D5">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D4, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="str" cm="1">
+        <f t="array" ref="H4">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H3, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v>c</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M3, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="str" cm="1">
+        <f t="array" ref="C5">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C4, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>g</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5" t="str" cm="1">
+        <f t="array" ref="H5">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H4, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v>d</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="M5" cm="1">
+        <f t="array" ref="M5">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M4, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="str" cm="1">
-        <f t="array" ref="D6">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D5, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C6" s="1" t="str" cm="1">
+        <f t="array" ref="C6">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C5, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>l</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="str" cm="1">
+        <f t="array" ref="H6">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H5, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v>e</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M5, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="str" cm="1">
-        <f t="array" ref="D7">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D6, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C7" s="1" t="str" cm="1">
+        <f t="array" ref="C7">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C6, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>m</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H7" t="str" cm="1">
+        <f t="array" ref="H7">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H6, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M6, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="str" cm="1">
-        <f t="array" ref="D8">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D7, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C8" s="1" t="str" cm="1">
+        <f t="array" ref="C8">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C7, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>k</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="str" cm="1">
+        <f t="array" ref="H8">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H7, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" ref="M8">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M7, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="str" cm="1">
-        <f t="array" ref="D9">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D8, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C9" s="1" t="str" cm="1">
+        <f t="array" ref="C9">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C8, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>j</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H9" t="str" cm="1">
+        <f t="array" ref="H9">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H8, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M8, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="str" cm="1">
-        <f t="array" ref="D10">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D9, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C10" s="1" t="str" cm="1">
+        <f t="array" ref="C10">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C9, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>x</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="str" cm="1">
+        <f t="array" ref="H10">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H9, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="M10" t="str" cm="1">
+        <f t="array" ref="M10">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M9, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="str" cm="1">
-        <f t="array" ref="D11">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D10, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C11" s="1" t="str" cm="1">
+        <f t="array" ref="C11">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C10, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>y</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H11" t="str" cm="1">
+        <f t="array" ref="H11">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H10, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M11" t="str" cm="1">
+        <f t="array" ref="M11">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M10, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="str" cm="1">
-        <f t="array" ref="D12">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D11, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C12" s="1" t="str" cm="1">
+        <f t="array" ref="C12">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C11, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>z</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H12" t="str" cm="1">
+        <f t="array" ref="H12">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H11, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M12" t="str" cm="1">
+        <f t="array" ref="M12">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M11, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="str" cm="1">
-        <f t="array" ref="D13">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D12, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C13" s="1" t="str" cm="1">
+        <f t="array" ref="C13">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C12, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>sdafds</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="str" cm="1">
+        <f t="array" ref="H13">IFERROR(INDEX($F$1:$F$100, MATCH(0, COUNTIF($H$1:H12, $F$1:$F$100&amp;"") + IF($F$1:$F$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M13" t="str" cm="1">
+        <f t="array" ref="M13">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M12, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="str" cm="1">
-        <f t="array" ref="D14">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D13, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C14" s="1" t="str" cm="1">
+        <f t="array" ref="C14">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C13, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>safadsf</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M14" t="str" cm="1">
+        <f t="array" ref="M14">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M13, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="str" cm="1">
-        <f t="array" ref="D15">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D14, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="str" cm="1">
+        <f t="array" ref="C15">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C14, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v>gg</v>
+      </c>
+      <c r="M15" t="str" cm="1">
+        <f t="array" ref="M15">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M14, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="str" cm="1">
-        <f t="array" ref="D16">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D15, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="str" cm="1">
+        <f t="array" ref="C16">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C15, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M16" t="str" cm="1">
+        <f t="array" ref="M16">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M15, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="1" t="str" cm="1">
-        <f t="array" ref="D17">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D16, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="str" cm="1">
+        <f t="array" ref="C17">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C16, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M17" t="str" cm="1">
+        <f t="array" ref="M17">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M16, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="1" t="str" cm="1">
-        <f t="array" ref="D18">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D17, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="str" cm="1">
+        <f t="array" ref="C18">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C17, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M18" t="str" cm="1">
+        <f t="array" ref="M18">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M17, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="str" cm="1">
-        <f t="array" ref="D19">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D18, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="str" cm="1">
+        <f t="array" ref="C19">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C18, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M19" t="str" cm="1">
+        <f t="array" ref="M19">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M18, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1" t="str" cm="1">
-        <f t="array" ref="D20">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D19, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="str" cm="1">
+        <f t="array" ref="C20">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C19, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="M20" t="str" cm="1">
+        <f t="array" ref="M20">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M19, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1" t="str" cm="1">
-        <f t="array" ref="D21">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D20, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="str" cm="1">
-        <f t="array" ref="D22">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D21, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="str" cm="1">
-        <f t="array" ref="D23">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D22, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="str" cm="1">
-        <f t="array" ref="D24">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D23, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="str" cm="1">
-        <f t="array" ref="D25">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D24, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="str" cm="1">
-        <f t="array" ref="D26">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D25, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="str" cm="1">
-        <f t="array" ref="D27">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D26, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="str" cm="1">
-        <f t="array" ref="D28">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D27, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="str" cm="1">
-        <f t="array" ref="D29">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D28, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="str" cm="1">
-        <f t="array" ref="D30">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D29, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="str" cm="1">
-        <f t="array" ref="D31">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D30, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="str" cm="1">
-        <f t="array" ref="D32">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D31, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="str" cm="1">
-        <f t="array" ref="D33">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($D$1:D32, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+      <c r="C21" s="1" t="str" cm="1">
+        <f t="array" ref="C21">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C20, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M21" t="str" cm="1">
+        <f t="array" ref="M21">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M20, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="str" cm="1">
+        <f t="array" ref="C22">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C21, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M22" t="str" cm="1">
+        <f t="array" ref="M22">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M21, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="str" cm="1">
+        <f t="array" ref="C23">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C22, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M23" t="str" cm="1">
+        <f t="array" ref="M23">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M22, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="str" cm="1">
+        <f t="array" ref="C24">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C23, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M24" t="str" cm="1">
+        <f t="array" ref="M24">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M23, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="str" cm="1">
+        <f t="array" ref="C25">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C24, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M25" t="str" cm="1">
+        <f t="array" ref="M25">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M24, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="str" cm="1">
+        <f t="array" ref="C26">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C25, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M26" t="str" cm="1">
+        <f t="array" ref="M26">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M25, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="str" cm="1">
+        <f t="array" ref="C27">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C26, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M27" t="str" cm="1">
+        <f t="array" ref="M27">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M26, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="str" cm="1">
+        <f t="array" ref="C28">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C27, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M28" t="str" cm="1">
+        <f t="array" ref="M28">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M27, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="str" cm="1">
+        <f t="array" ref="C29">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C28, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M29" t="str" cm="1">
+        <f t="array" ref="M29">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M28, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="str" cm="1">
+        <f t="array" ref="C30">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C29, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M30" t="str" cm="1">
+        <f t="array" ref="M30">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M29, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="str" cm="1">
+        <f t="array" ref="C31">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C30, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="M31" t="str" cm="1">
+        <f t="array" ref="M31">IFERROR(INDEX($K$1:$K$100, MATCH(0, COUNTIF($M$1:M30, $K$1:$K$100&amp;"") + IF($K$1:$K$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="str" cm="1">
+        <f t="array" ref="C32">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C31, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="str" cm="1">
+        <f t="array" ref="C33">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C32, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$A$1:$A$50</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>LIST</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{26FB574D-4BD2-45A0-A5B0-5A727D253E69}">
+      <formula1>LIST2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{F47B9273-E130-4F66-878D-A1A958EF2B8D}">
+      <formula1>LISTROH</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Excel_HowtoDropBoxWithoutBlanks.xlsx
+++ b/Excel_HowtoDropBoxWithoutBlanks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\DEV\Learning-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D7BA5-DDBA-4BD8-81B3-D43DEB4FF0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A534DA-5AF5-4E38-905C-97C6D756B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/Excel_HowtoDropBoxWithoutBlanks.xlsx
+++ b/Excel_HowtoDropBoxWithoutBlanks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\DEV\Learning-Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Learning-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A534DA-5AF5-4E38-905C-97C6D756B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EA4A9E-B308-40A8-89B9-B36E5F4EB470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="LIST">OFFSET(Tabelle1!$C$2,,,COUNTIF(Tabelle1!$C$2:$C$100,"&gt; "),1)</definedName>
     <definedName name="LIST2">OFFSET(Tabelle1!$H$2,,,COUNTIF(Tabelle1!$H$2:$H$100,"&gt; "),1)</definedName>
-    <definedName name="LISTROH">OFFSET(Tabelle1!$M$2,,,COUNTIF(Tabelle1!$M$2:$M$100,"&gt; "),1)</definedName>
+    <definedName name="LISTROH">OFFSET(Tabelle1!$M$2,,,99-COUNTBLANK(Tabelle1!$M$2:$M$100),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -174,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,12 +490,12 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,12 +515,14 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="2">
+        <v>4</v>
+      </c>
       <c r="M1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -543,7 +545,7 @@
         <v>100.200.000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="str" cm="1">
         <f t="array" ref="C3">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C2, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>b</v>
@@ -560,7 +562,7 @@
         <v>32424</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -583,7 +585,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="str" cm="1">
         <f t="array" ref="C5">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C4, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v>g</v>
@@ -600,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -623,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -643,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -666,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -683,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -706,7 +708,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -723,7 +725,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -740,7 +742,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -760,7 +762,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -773,7 +775,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -786,7 +788,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -799,7 +801,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -812,7 +814,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -825,7 +827,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -838,7 +840,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -854,7 +856,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -867,7 +869,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -880,7 +882,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="str" cm="1">
         <f t="array" ref="C23">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C22, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
@@ -890,7 +892,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="str" cm="1">
         <f t="array" ref="C24">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C23, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
@@ -900,7 +902,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="str" cm="1">
         <f t="array" ref="C25">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C24, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
@@ -910,7 +912,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C26" s="1" t="str" cm="1">
         <f t="array" ref="C26">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C25, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
@@ -920,7 +922,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C27" s="1" t="str" cm="1">
         <f t="array" ref="C27">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C26, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
@@ -930,7 +932,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="str" cm="1">
         <f t="array" ref="C28">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C27, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
@@ -940,7 +942,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="str" cm="1">
         <f t="array" ref="C29">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C28, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
@@ -950,7 +952,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="str" cm="1">
         <f t="array" ref="C30">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C29, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
@@ -960,7 +962,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="str" cm="1">
         <f t="array" ref="C31">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C30, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
@@ -970,13 +972,13 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="str" cm="1">
         <f t="array" ref="C32">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C31, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="str" cm="1">
         <f t="array" ref="C33">IFERROR(INDEX($A$1:$A$100, MATCH(0, COUNTIF($C$1:C32, $A$1:$A$100&amp;"") + IF($A$1:$A$100="",1,0), 0)), "")</f>
         <v/>
